--- a/shell/para_file.xlsx
+++ b/shell/para_file.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunchen\Desktop\绍兴\yunchen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunchen\Desktop\yunchen\Datai\shell\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9036" tabRatio="496"/>
   </bookViews>
   <sheets>
-    <sheet name="表信息" sheetId="1" r:id="rId1"/>
+    <sheet name="import表信息" sheetId="1" r:id="rId1"/>
+    <sheet name="export表信息" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -59,8 +60,45 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>yunchen</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yunchen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+full读取全量目录
+delta读取增量目录
+flow读取增量流水目录
+目前抽取程序没有flow这种情况，所以后两种是一样的</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +201,54 @@
   </si>
   <si>
     <t>INC_DATETIME1=java.sql.Timestamp,INC_DATETIME2=java.sql.Timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键或者时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc:oracle:thin:@192.168.1.227:1521:xe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunchen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunchen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YUNCHEN.GA_DFK_BARXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full或者delta或者flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INC_DATETIME1=java.sql.Timestamp,INC_DATETIME2=java.sql.Timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INC_DATETIME1=java.sql.Timestamp,INC_DATETIME2=java.sql.Timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,NAME,INC_DATETIME1,INC_DATETIME2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +294,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -223,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -246,13 +345,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,6 +385,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,11 +738,11 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M13" sqref="M13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.44140625" style="2" bestFit="1" customWidth="1"/>
@@ -646,7 +759,7 @@
     <col min="14" max="16384" width="11.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -687,7 +800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -725,10 +838,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -769,7 +882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="J4" s="1">
         <f>SUM(J2:J3)</f>
@@ -791,4 +904,89 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>